--- a/06_1_C_SES_excel_fittedvals_solved.xlsx
+++ b/06_1_C_SES_excel_fittedvals_solved.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgp/Library/CloudStorage/GoogleDrive-jgarbayo@faculty.ie.edu/My Drive/IE_Classes/2023_Fall/TimeSeriesAnalysis/ZZ_Notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgp/Library/CloudStorage/GoogleDrive-jgarbayo@faculty.ie.edu/My Drive/IE_Classes/2024_Fall/TSA_Fall2024/TSA_Notebooks_Fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A0B264-EABE-244D-98DB-4F8214E87689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11228581-CBC9-3C4F-9A7A-AD5795FDCB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,21 +355,21 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>268197</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>465344</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>49167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A3FC61-BBB4-9F43-BD3E-D264CF2BC273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC08725-8113-7E40-B2D2-EEEB62DE728F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -378,22 +378,22 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4372290" y="387786"/>
-          <a:ext cx="4950716" cy="619780"/>
+          <a:off x="4217176" y="775573"/>
+          <a:ext cx="3810000" cy="630846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -403,22 +403,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>281146</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>184199</xdr:rowOff>
+      <xdr:colOff>620457</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>135726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="TextBox 15">
+        <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F1147DF-84C8-FE40-8DE8-3ED4E10DF433}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3948C3-33A6-CC48-99A1-125FA2F3E1F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -426,8 +426,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4372291" y="1163359"/>
-          <a:ext cx="4963664" cy="959771"/>
+          <a:off x="4217176" y="1551145"/>
+          <a:ext cx="5302976" cy="329619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -462,249 +462,141 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>The forecast equation is particularized for </a:t>
+            <a:rPr lang="en-GB" sz="1300" kern="1200"/>
+            <a:t>Remember that fitted values are </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1"/>
-            <a:t>h=1</a:t>
+            <a:rPr lang="en-GB" sz="1300" b="1" kern="1200"/>
+            <a:t>one step-ahead</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0"/>
-            <a:t> (fitted</a:t>
+            <a:rPr lang="en-GB" sz="1300" b="1" kern="1200" baseline="0"/>
+            <a:t> forecasts on the training data.</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
-            <a:t> values are one-step ahead forecasts). It results in an equation at point </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
-            <a:t>t+1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
-            <a:t>The level equation is nonetheless particularized at </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
-            <a:t>t</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
-            <a:t>. To make both consistent, we use a change of variable on the forecast equation.</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1300" kern="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>16670</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>591374</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>94131</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>626251</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>191180</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Group 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96627CCD-ACD0-124B-9F62-84B2565E7AF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D1EF73-B7AF-6246-9FAE-80F1B16A40D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4372290" y="2326718"/>
-          <a:ext cx="3936031" cy="1063596"/>
+          <a:off x="4233846" y="2139806"/>
+          <a:ext cx="5961031" cy="3868168"/>
+          <a:chOff x="4246260" y="1745038"/>
+          <a:chExt cx="6319733" cy="3868168"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>46892</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19389</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597A30DB-8F4F-B44B-9011-442421CA8182}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4372290" y="3490076"/>
-          <a:ext cx="4060480" cy="1376641"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>135518</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>136976</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C14F846-95D2-094C-B9B6-1C4602BAB032}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4372290" y="5041221"/>
-          <a:ext cx="2811243" cy="1494228"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>58168</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>106641</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>959771</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>164810</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE82D899-A573-0F1A-A856-01F353012180}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3402824" y="882214"/>
-          <a:ext cx="901603" cy="4323817"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="Picture 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6C1736-4C68-A7FC-A18D-54465CB5A45F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4246260" y="1745038"/>
+            <a:ext cx="6319733" cy="3868168"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE0274ED-B82D-B3E2-B28C-48213F0918A6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5109084" y="5002443"/>
+            <a:ext cx="4546794" cy="581679"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1012,12 +904,12 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
